--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="412">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,37 @@
   </si>
   <si>
     <t>A profile that records the primary cancer condition, the original or first neoplasm in the body (Definition from: [NCI Dictionary of Cancer Terms](https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor)). Cancers that are not clearly secondary (i.e., of uncertain origin or behavior) should be documented as primary.
-It constrains the mCODE [PrimaryCancerCCondition profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-primary-cancer-condition) to constrain the terminologies of the cancer topography and morphology extensions to use exclusively ICD-O-3 codes.</t>
+It constrains the mCODE [PrimaryCancerCondition profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-primary-cancer-condition) to constrain the terminologies of the cancer topography and morphology extensions to use exclusively ICD-O-3 codes.
+This profile can be used to represent the Onconova neoplastic entities of relationship `primary`, `local_recurrence`, and `regional_recurrence`. Local and regional recurrences are indicated using extensions to denote that the condition is a recurrence of a previous condition, and to specify the type of recurrence (local or regional). For example, a local recurrence would be represented as a PrimaryCancerCondition with:
+```
+{
+    clinicalStatus: {
+        coding: [
+            {
+                system: "http://snomed.info/sct",
+                code: "recurrence",
+                display: "Recurrence"
+            }
+        ],
+    },
+    _clinicalStatus {
+        extension: [
+            {
+                url: "http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-type",
+                valueCodeableConcept: {
+                    coding: [
+                        {
+                            system: "http://snomed.info/sct",
+                            code: "255470001",
+                            display: "Local (qualifier value)"
+                        }
+                    ]
+                }
+            }
+        ]
+    },
+}
+```</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -273,7 +303,7 @@
   </si>
   <si>
     <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-con-1:If clinicalStatus is 'recurrence', the recurrenceOf extension must be provided. {clinicalStatus.exists() and clinicalStatus.coding.code = 'recurrence' implies extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-of').exists()}o-con-2:If clinicalStatus is 'recurrence', the type of recurrence must be provided. {clinicalStatus.exists() and clinicalStatus.coding.code = 'recurrence' implies clinicalStatus.extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-type').exists()}o-con-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-con-req-2:The assertedDate extension is required and must be provided. {extension('http://hl7.org/fhir/StructureDefinition/condition-assertedDate').exists()}o-con-req-3:The bodySite element is required and must be provided. {bodySite.exists() and bodySite.coding.exists()}o-con-req-4:The histologyMorphologyBehavior extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-histology-morphology-behavior').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -572,7 +602,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-morphology-behavior|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-morphology-behavior|0.2.0</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -584,7 +614,7 @@
     <t>recurrenceOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-of|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-of|0.2.0}
 </t>
   </si>
   <si>
@@ -678,6 +708,86 @@
   </si>
   <si>
     <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus.id</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus.extension:recurrenceType</t>
+  </si>
+  <si>
+    <t>recurrenceType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-type|0.2.0}
+</t>
+  </si>
+  <si>
+    <t>Recurrence Type</t>
+  </si>
+  <si>
+    <t>Indicates the type of recurrence for the condition (local or regional).</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Condition.verificationStatus</t>
@@ -871,7 +981,7 @@
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-topography|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-topography|0.2.0</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -887,12 +997,6 @@
   </si>
   <si>
     <t>Condition.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Condition.bodySite.extension:locationQualifier</t>
@@ -924,53 +1028,7 @@
     <t>Condition.bodySite.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
     <t>Condition.bodySite.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Condition.subject</t>
@@ -980,7 +1038,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -1610,7 +1668,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3940,7 +3998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>212</v>
       </c>
@@ -3959,26 +4017,24 @@
         <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4003,11 +4059,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -4025,7 +4083,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4034,50 +4092,50 @@
         <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>20</v>
@@ -4086,16 +4144,16 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4121,21 +4179,23 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4143,7 +4203,7 @@
         <v>139</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4155,49 +4215,49 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>20</v>
@@ -4206,17 +4266,15 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4241,13 +4299,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4265,7 +4323,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4277,37 +4335,35 @@
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>238</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4319,28 +4375,28 @@
         <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K23" t="s" s="2">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4365,13 +4421,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>235</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4389,7 +4445,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4407,16 +4463,16 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AN23" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="AO23" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4424,10 +4480,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4447,21 +4503,23 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4485,13 +4543,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4509,7 +4567,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4527,35 +4585,35 @@
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>251</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>253</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -4564,7 +4622,7 @@
         <v>91</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
@@ -4573,15 +4631,15 @@
         <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4590,7 +4648,7 @@
         <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>20</v>
@@ -4605,11 +4663,11 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4627,7 +4685,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4636,36 +4694,36 @@
         <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4685,19 +4743,19 @@
         <v>20</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4723,29 +4781,29 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="AC26" s="2"/>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4763,41 +4821,43 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>272</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
@@ -4806,15 +4866,17 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4839,13 +4901,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -4863,49 +4925,51 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="D28" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4915,7 +4979,7 @@
         <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>20</v>
@@ -4924,18 +4988,20 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -4959,31 +5025,31 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4995,37 +5061,35 @@
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5034,10 +5098,10 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>20</v>
@@ -5046,15 +5110,17 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5079,13 +5145,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>20</v>
+        <v>272</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5103,55 +5169,53 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>20</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>90</v>
@@ -5163,19 +5227,21 @@
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5184,7 +5250,7 @@
         <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>20</v>
@@ -5199,13 +5265,11 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>20</v>
+        <v>284</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5223,45 +5287,45 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>20</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>20</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5269,13 +5333,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5284,20 +5348,18 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5321,13 +5383,11 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5363,27 +5423,27 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>20</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5403,23 +5463,19 @@
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>156</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>157</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5467,7 +5523,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5479,7 +5535,7 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -5488,58 +5544,58 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP32" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN32" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>303</v>
+        <v>186</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5575,59 +5631,61 @@
         <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP33" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5636,29 +5694,27 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5707,34 +5763,34 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>20</v>
@@ -5742,12 +5798,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5765,20 +5823,18 @@
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5827,45 +5883,45 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>164</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>327</v>
+        <v>20</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5876,30 +5932,32 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>320</v>
+        <v>222</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>223</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
+        <v>224</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5947,16 +6005,16 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>227</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>102</v>
@@ -5968,24 +6026,24 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>229</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5999,7 +6057,7 @@
         <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
@@ -6008,16 +6066,20 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>336</v>
+        <v>156</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6065,7 +6127,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6086,38 +6148,38 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>338</v>
+        <v>237</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>339</v>
+        <v>20</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>20</v>
@@ -6126,16 +6188,18 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>213</v>
+        <v>315</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6183,10 +6247,10 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>90</v>
@@ -6198,19 +6262,19 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>20</v>
@@ -6218,10 +6282,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6244,15 +6308,17 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6301,7 +6367,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6316,19 +6382,19 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>20</v>
@@ -6336,10 +6402,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6350,7 +6416,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>91</v>
@@ -6359,18 +6425,20 @@
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>213</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6419,45 +6487,45 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>350</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6471,7 +6539,7 @@
         <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>20</v>
@@ -6480,15 +6548,17 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>156</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>157</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6537,7 +6607,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>159</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6546,10 +6616,10 @@
         <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>20</v>
+        <v>341</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -6561,54 +6631,52 @@
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>160</v>
+        <v>342</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>135</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6657,19 +6725,19 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>164</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -6678,13 +6746,13 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>160</v>
+        <v>347</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>20</v>
@@ -6692,46 +6760,42 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>239</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6779,19 +6843,19 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6803,10 +6867,10 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>133</v>
+        <v>351</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>20</v>
@@ -6814,10 +6878,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6837,16 +6901,16 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>239</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
+        <v>239</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6873,13 +6937,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -6897,7 +6961,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6906,7 +6970,7 @@
         <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>102</v>
@@ -6915,16 +6979,16 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>209</v>
+        <v>354</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>20</v>
@@ -6932,10 +6996,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6958,13 +7022,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>239</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>239</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7015,7 +7079,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7024,10 +7088,10 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>359</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7039,7 +7103,7 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7050,10 +7114,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7076,13 +7140,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>157</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>158</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7109,11 +7173,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Y46" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z46" t="s" s="2">
-        <v>375</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7131,7 +7197,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7143,7 +7209,7 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7155,7 +7221,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>376</v>
+        <v>160</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7166,14 +7232,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7192,16 +7258,16 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>349</v>
+        <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7251,7 +7317,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7263,7 +7329,7 @@
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>379</v>
+        <v>141</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7275,7 +7341,7 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>380</v>
+        <v>160</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7286,42 +7352,46 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>157</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7369,19 +7439,19 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>159</v>
+        <v>367</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7393,7 +7463,7 @@
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7404,21 +7474,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7430,17 +7500,15 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>275</v>
+        <v>369</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7465,13 +7533,13 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>20</v>
+        <v>371</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -7489,31 +7557,31 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>164</v>
+        <v>368</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7522,16 +7590,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7541,29 +7609,25 @@
         <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7611,7 +7675,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7620,10 +7684,10 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -7635,7 +7699,7 @@
         <v>20</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>133</v>
+        <v>380</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7646,10 +7710,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7660,7 +7724,7 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7669,16 +7733,16 @@
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7705,11 +7769,11 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7727,34 +7791,34 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>391</v>
+        <v>20</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>20</v>
@@ -7762,10 +7826,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7785,18 +7849,20 @@
         <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>394</v>
+        <v>239</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7845,7 +7911,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7854,11 +7920,11 @@
         <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>102</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
       </c>
@@ -7869,10 +7935,10 @@
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>391</v>
+        <v>20</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>20</v>
@@ -7880,10 +7946,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7894,7 +7960,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7906,13 +7972,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>156</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
+        <v>157</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>399</v>
+        <v>158</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7963,41 +8029,635 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y56" s="2"/>
+      <c r="Z56" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
+      <c r="AA56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AI56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AK56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AP56" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="B57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AO53" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP53" t="s" s="2">
+      <c r="L57" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP53">
+  <autoFilter ref="A1:AP58">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8007,7 +8667,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$59</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="416">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -608,6 +608,22 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t>Condition.extension:differentiation</t>
+  </si>
+  <si>
+    <t>differentiation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-differentiation|0.2.0}
+</t>
+  </si>
+  <si>
+    <t>Recurrence Type</t>
+  </si>
+  <si>
+    <t>THe histological differentiation of the tumor.</t>
+  </si>
+  <si>
     <t>Condition.extension:recurrenceOf</t>
   </si>
   <si>
@@ -730,9 +746,6 @@
   <si>
     <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-type|0.2.0}
 </t>
-  </si>
-  <si>
-    <t>Recurrence Type</t>
   </si>
   <si>
     <t>Indicates the type of recurrence for the condition (local or regional).</t>
@@ -1668,7 +1681,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP58"/>
+  <dimension ref="A1:AP59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3636,48 +3649,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="O17" t="s" s="2">
-        <v>190</v>
-      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3725,7 +3736,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3749,7 +3760,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -3760,14 +3771,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3780,25 +3791,25 @@
         <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3847,7 +3858,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3859,10 +3870,10 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
@@ -3871,21 +3882,21 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3896,30 +3907,32 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
       </c>
@@ -3943,11 +3956,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3965,45 +3980,45 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4017,24 +4032,26 @@
         <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4059,13 +4076,11 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -4083,7 +4098,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4092,25 +4107,25 @@
         <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4118,21 +4133,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -4144,17 +4159,15 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4191,31 +4204,31 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
@@ -4238,23 +4251,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -4266,7 +4277,7 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>135</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>219</v>
@@ -4274,7 +4285,9 @@
       <c r="M22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4311,16 +4324,16 @@
         <v>20</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>164</v>
@@ -4347,7 +4360,7 @@
         <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4361,9 +4374,11 @@
         <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4372,7 +4387,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4381,23 +4396,19 @@
         <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4445,7 +4456,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4457,7 +4468,7 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
@@ -4466,10 +4477,10 @@
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>20</v>
@@ -4480,10 +4491,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4494,7 +4505,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -4506,19 +4517,19 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4567,13 +4578,13 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -4588,10 +4599,10 @@
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4600,12 +4611,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4619,27 +4630,29 @@
         <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4663,11 +4676,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>241</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4685,7 +4700,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4694,36 +4709,36 @@
         <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>246</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4731,31 +4746,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4781,71 +4796,69 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>20</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4869,13 +4882,13 @@
         <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4901,31 +4914,29 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4943,16 +4954,16 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -4960,20 +4971,20 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C28" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>80</v>
@@ -4991,17 +5002,15 @@
         <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5028,10 +5037,10 @@
         <v>177</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5049,7 +5058,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5067,29 +5076,31 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5098,10 +5109,10 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>20</v>
@@ -5113,15 +5124,17 @@
         <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5145,10 +5158,10 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>272</v>
@@ -5169,13 +5182,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -5187,61 +5200,61 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AM29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5250,7 +5263,7 @@
         <v>20</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>20</v>
@@ -5265,11 +5278,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Y30" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="Z30" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5287,7 +5302,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5302,41 +5317,41 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>20</v>
+        <v>283</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>91</v>
@@ -5351,15 +5366,15 @@
         <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5368,7 +5383,7 @@
         <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>20</v>
@@ -5383,11 +5398,11 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5405,13 +5420,13 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
@@ -5420,30 +5435,30 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5451,30 +5466,32 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5499,13 +5516,11 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5523,56 +5538,56 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>20</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5584,17 +5599,15 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5631,31 +5644,31 @@
         <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
@@ -5676,18 +5689,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5697,7 +5708,7 @@
         <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>20</v>
@@ -5706,15 +5717,17 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>303</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5751,16 +5764,16 @@
         <v>20</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>164</v>
@@ -5787,7 +5800,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5801,7 +5814,7 @@
         <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>306</v>
@@ -5814,7 +5827,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>91</v>
@@ -5916,14 +5929,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5932,32 +5947,28 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>223</v>
+        <v>312</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -6005,7 +6016,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6017,7 +6028,7 @@
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -6026,10 +6037,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6040,10 +6051,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6054,7 +6065,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -6066,19 +6077,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6127,13 +6138,13 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
@@ -6148,10 +6159,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6160,26 +6171,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>20</v>
@@ -6188,17 +6199,19 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O38" t="s" s="2">
-        <v>316</v>
+        <v>238</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6247,10 +6260,10 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>90</v>
@@ -6262,44 +6275,44 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>20</v>
@@ -6308,18 +6321,18 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>239</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
       </c>
@@ -6367,10 +6380,10 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>90</v>
@@ -6382,30 +6395,30 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AP39" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AN39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6419,7 +6432,7 @@
         <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>20</v>
@@ -6428,16 +6441,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>243</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6487,7 +6500,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6502,19 +6515,19 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
@@ -6522,10 +6535,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6545,19 +6558,19 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6607,7 +6620,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6616,25 +6629,25 @@
         <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -6642,10 +6655,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6665,18 +6678,20 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>239</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6725,7 +6740,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6734,7 +6749,7 @@
         <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>102</v>
@@ -6746,24 +6761,24 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AO42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AP42" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6777,7 +6792,7 @@
         <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>20</v>
@@ -6786,13 +6801,13 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6843,7 +6858,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6864,7 +6879,7 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>351</v>
@@ -6904,13 +6919,13 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6982,7 +6997,7 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>355</v>
@@ -6994,7 +7009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>357</v>
       </c>
@@ -7010,25 +7025,25 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7085,34 +7100,34 @@
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AO45" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AP45" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>361</v>
       </c>
@@ -7128,10 +7143,10 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>20</v>
@@ -7140,13 +7155,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7197,19 +7212,19 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>159</v>
+        <v>361</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>20</v>
+        <v>363</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7221,7 +7236,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>160</v>
+        <v>364</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7232,21 +7247,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -7258,17 +7273,15 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7317,19 +7330,19 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7352,14 +7365,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>364</v>
+        <v>191</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7372,26 +7385,24 @@
         <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>219</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7439,7 +7450,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>164</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7463,7 +7474,7 @@
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7474,33 +7485,33 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>369</v>
@@ -7508,8 +7519,12 @@
       <c r="M49" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7533,69 +7548,69 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="B50" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7606,10 +7621,10 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>20</v>
@@ -7618,13 +7633,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>377</v>
+        <v>174</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7651,13 +7666,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7675,16 +7690,16 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>102</v>
@@ -7693,27 +7708,27 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AO50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="B51" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7724,10 +7739,10 @@
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>20</v>
@@ -7736,7 +7751,7 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>174</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>382</v>
@@ -7769,11 +7784,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Y51" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z51" t="s" s="2">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7791,16 +7808,16 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>102</v>
@@ -7815,7 +7832,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7826,10 +7843,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7840,7 +7857,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -7852,17 +7869,15 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>358</v>
+        <v>174</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N52" t="s" s="2">
         <v>387</v>
       </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7887,13 +7902,11 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7911,19 +7924,19 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>388</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -7960,7 +7973,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7972,15 +7985,17 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8029,19 +8044,19 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>159</v>
+        <v>390</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>20</v>
+        <v>392</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8053,7 +8068,7 @@
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8064,21 +8079,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -8090,17 +8105,15 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8149,19 +8162,19 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>20</v>
@@ -8184,14 +8197,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>364</v>
+        <v>191</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8204,26 +8217,24 @@
         <v>20</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>219</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
       </c>
@@ -8271,7 +8282,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>164</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8295,7 +8306,7 @@
         <v>20</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>20</v>
@@ -8306,14 +8317,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8326,22 +8337,26 @@
         <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8365,11 +8380,13 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>396</v>
+        <v>20</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8387,7 +8404,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8396,25 +8413,25 @@
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>397</v>
+        <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>398</v>
+        <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>399</v>
+        <v>133</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>20</v>
@@ -8422,10 +8439,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8448,13 +8465,13 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8481,13 +8498,11 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8505,7 +8520,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8514,25 +8529,25 @@
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>20</v>
+        <v>402</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>20</v>
@@ -8563,7 +8578,7 @@
         <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>406</v>
@@ -8632,32 +8647,150 @@
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>20</v>
+        <v>401</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM58" t="s" s="2">
+      <c r="B59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AO58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP58" t="s" s="2">
+      <c r="M59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP58">
+  <autoFilter ref="A1:AP59">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8667,7 +8800,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI58">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,38 +84,12 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile that records the primary cancer condition, the original or first neoplasm in the body (Definition from: [NCI Dictionary of Cancer Terms](https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor)). Cancers that are not clearly secondary (i.e., of uncertain origin or behavior) should be documented as primary.
-It constrains the mCODE [PrimaryCancerCondition profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-primary-cancer-condition) to constrain the terminologies of the cancer topography and morphology extensions to use exclusively ICD-O-3 codes.
-This profile can be used to represent the Onconova neoplastic entities of relationship `primary`, `local_recurrence`, and `regional_recurrence`. Local and regional recurrences are indicated using extensions to denote that the condition is a recurrence of a previous condition, and to specify the type of recurrence (local or regional). For example, a local recurrence would be represented as a PrimaryCancerCondition with:
-```
-{
-    clinicalStatus: {
-        coding: [
-            {
-                system: "http://snomed.info/sct",
-                code: "recurrence",
-                display: "Recurrence"
-            }
-        ],
-    },
-    _clinicalStatus {
-        extension: [
-            {
-                url: "http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-type",
-                valueCodeableConcept: {
-                    coding: [
-                        {
-                            system: "http://snomed.info/sct",
-                            code: "255470001",
-                            display: "Local (qualifier value)"
-                        }
-                    ]
-                }
-            }
-        ]
-    },
-}
-```</t>
+    <t xml:space="preserve">A profile that records the primary cancer condition, the original or first neoplasm in the body (Definition from: [NCI Dictionary of Cancer Terms](https://www.cancer.gov/publications/dictionaries/cancer-terms/def/primary-tumor)). Cancers that are not clearly secondary (i.e., of uncertain origin or behavior) should be documented as primary.
+It constrains the mCODE [PrimaryCancerCondition profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-primary-cancer-condition) to constrain the terminologies of the cancer topography and morphology extensions to use exclusively ICD-O-3 codes. 
+Local and regional recurrences are indicated using the `clinicalStatus` and `clinicalStatus.extension` to denote that the condition is a recurrence of a previous condition, and to specify the type of recurrence (local or regional).
+**Conformance:**
+Condition resources representing a primary or recurrent neoplastic entity in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. 
+</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -145,7 +119,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-primary-cancer-condition|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-primary-cancer-condition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -404,7 +378,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -495,11 +469,11 @@
     <t>assertedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {condition-assertedDate|5.2.0}
+    <t xml:space="preserve">Extension {condition-assertedDate}
 </t>
   </si>
   <si>
-    <t>(USCDI) Date the condition was first asserted</t>
+    <t>Date the condition was first asserted</t>
   </si>
   <si>
     <t>The date on which the existence of the Condition was first asserted or acknowledged.</t>
@@ -518,7 +492,7 @@
     <t>histologyMorphologyBehavior</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-histology-morphology-behavior|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-histology-morphology-behavior}
 </t>
   </si>
   <si>
@@ -602,7 +576,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-morphology-behavior|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-morphology-behaviors</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -614,30 +588,14 @@
     <t>differentiation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-differentiation|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-histological-differentiation}
 </t>
   </si>
   <si>
-    <t>Recurrence Type</t>
-  </si>
-  <si>
-    <t>THe histological differentiation of the tumor.</t>
-  </si>
-  <si>
-    <t>Condition.extension:recurrenceOf</t>
-  </si>
-  <si>
-    <t>recurrenceOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-of|0.2.0}
-</t>
-  </si>
-  <si>
-    <t>Recurrence Of</t>
-  </si>
-  <si>
-    <t>Indicates that the condition is a recurrence of a previous condition, and provides a reference to that previous condition.</t>
+    <t>Histological Differentiation</t>
+  </si>
+  <si>
+    <t>The histological differentiation of the tumor.</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -703,7 +661,7 @@
     <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-clinical|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-clinical</t>
   </si>
   <si>
     <t>con-3
@@ -744,11 +702,30 @@
     <t>recurrenceType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-type|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-primary-cancer-recurrence-type}
 </t>
   </si>
   <si>
+    <t>Primary Cancer Recurrence Type</t>
+  </si>
+  <si>
     <t>Indicates the type of recurrence for the condition (local or regional).</t>
+  </si>
+  <si>
+    <t>Condition.clinicalStatus.extension:recurrenceOf</t>
+  </si>
+  <si>
+    <t>recurrenceOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-primary-cancer-recurrence-of}
+</t>
+  </si>
+  <si>
+    <t>Primary Cancer Recurrence Of</t>
+  </si>
+  <si>
+    <t>Indicates that the condition is a recurrence of a previous condition, and provides a reference to that previous condition.</t>
   </si>
   <si>
     <t>Condition.clinicalStatus.coding</t>
@@ -813,7 +790,7 @@
 The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-ver-status</t>
   </si>
   <si>
     <t>con-3
@@ -848,7 +825,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-category</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -879,7 +856,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem-or-health-concern|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-problem-or-health-concern</t>
   </si>
   <si>
     <t>Condition.category:screening-assessment</t>
@@ -897,7 +874,7 @@
     <t>Used for filtering condition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-condition-category|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-condition-category</t>
   </si>
   <si>
     <t>Condition.severity</t>
@@ -909,7 +886,7 @@
     <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-severity|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -952,7 +929,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-primary-cancer-disorder-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-primary-cancer-disorder-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -994,7 +971,7 @@
     <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-topography|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-icdo3-topographies</t>
   </si>
   <si>
     <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
@@ -1018,24 +995,24 @@
     <t>locationQualifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-body-location-qualifier|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-body-location-qualifier}
 </t>
   </si>
   <si>
-    <t>General location qualifier (excluding laterality) for this bodySite</t>
-  </si>
-  <si>
     <t>Condition.bodySite.extension:lateralityQualifier</t>
   </si>
   <si>
     <t>lateralityQualifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-laterality-qualifier|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-laterality-qualifier}
 </t>
   </si>
   <si>
-    <t>Laterality qualifier for this bodySite</t>
+    <t>Laterality Qualifier Extension</t>
+  </si>
+  <si>
+    <t>Qualifier to specify laterality.</t>
   </si>
   <si>
     <t>Condition.bodySite.coding</t>
@@ -1051,7 +1028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -1079,7 +1056,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -1167,7 +1144,7 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1241,7 +1218,7 @@
     <t>Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-stage|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
   </si>
   <si>
     <t xml:space="preserve">con-1
@@ -1254,7 +1231,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-stage|4.0.0)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-stage)
 </t>
   </si>
   <si>
@@ -1276,7 +1253,7 @@
     <t>The type of stage reported in stage.summary, or the staging method used to arrive at the stage.summary value.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-staging-method-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-staging-method-vs</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage type"]</t>
@@ -1313,7 +1290,7 @@
     <t>A manifestation or symptom that led to the recording of this condition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-disease-status-evidence-type-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-disease-status-evidence-type-vs</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1332,7 +1309,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1700,7 +1677,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1715,7 +1692,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="150.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3649,46 +3626,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="J17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3736,7 +3715,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3760,7 +3739,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -3771,14 +3750,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3791,25 +3770,25 @@
         <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J18" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3858,7 +3837,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3870,10 +3849,10 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
@@ -3882,21 +3861,21 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3907,32 +3886,30 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
       </c>
@@ -3956,13 +3933,11 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3980,45 +3955,45 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4032,26 +4007,24 @@
         <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4076,11 +4049,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -4098,7 +4073,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4107,25 +4082,25 @@
         <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4133,21 +4108,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -4159,15 +4134,17 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4204,31 +4181,31 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
@@ -4251,21 +4228,23 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -4277,7 +4256,7 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>219</v>
@@ -4285,9 +4264,7 @@
       <c r="M22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>194</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4324,16 +4301,16 @@
         <v>20</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>164</v>
@@ -4360,7 +4337,7 @@
         <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4369,12 +4346,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>222</v>
@@ -4390,7 +4367,7 @@
         <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>20</v>
@@ -4402,10 +4379,10 @@
         <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4491,10 +4468,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4517,19 +4494,19 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4578,7 +4555,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4599,10 +4576,10 @@
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4613,10 +4590,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4642,16 +4619,16 @@
         <v>156</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4700,7 +4677,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4721,10 +4698,10 @@
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4735,10 +4712,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4764,13 +4741,13 @@
         <v>174</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4800,7 +4777,7 @@
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4818,7 +4795,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4827,36 +4804,36 @@
         <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4882,13 +4859,13 @@
         <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4914,19 +4891,19 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
@@ -4936,7 +4913,7 @@
         <v>139</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4954,16 +4931,16 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -4971,13 +4948,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>20</v>
@@ -5002,13 +4979,13 @@
         <v>174</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5037,10 +5014,10 @@
         <v>177</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5058,7 +5035,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5076,16 +5053,16 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>20</v>
@@ -5093,13 +5070,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>20</v>
@@ -5124,16 +5101,16 @@
         <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5161,10 +5138,10 @@
         <v>177</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5182,7 +5159,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5200,16 +5177,16 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
@@ -5217,10 +5194,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5246,13 +5223,13 @@
         <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5281,10 +5258,10 @@
         <v>114</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5302,7 +5279,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5320,31 +5297,31 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5366,14 +5343,14 @@
         <v>174</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5383,7 +5360,7 @@
         <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>20</v>
@@ -5398,11 +5375,11 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5420,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5435,30 +5412,30 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5469,7 +5446,7 @@
         <v>90</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>91</v>
@@ -5484,13 +5461,13 @@
         <v>174</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5520,7 +5497,7 @@
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5538,7 +5515,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5556,27 +5533,27 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5691,14 +5668,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5720,13 +5697,13 @@
         <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5811,13 +5788,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="B35" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="C35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>20</v>
@@ -5839,13 +5816,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5934,7 +5911,7 @@
         <v>309</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>310</v>
@@ -5965,7 +5942,7 @@
         <v>312</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6051,10 +6028,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6077,19 +6054,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6138,7 +6115,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6159,10 +6136,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6173,10 +6150,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6202,16 +6179,16 @@
         <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6260,7 +6237,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6281,10 +6258,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6295,14 +6272,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6321,17 +6298,17 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6380,7 +6357,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>90</v>
@@ -6395,19 +6372,19 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>20</v>
@@ -6415,10 +6392,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6441,16 +6418,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6500,7 +6477,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6515,19 +6492,19 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>20</v>
@@ -6535,10 +6512,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6561,16 +6538,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6620,7 +6597,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6635,19 +6612,19 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>20</v>
@@ -6655,10 +6632,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6681,16 +6658,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6740,7 +6717,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6749,7 +6726,7 @@
         <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>102</v>
@@ -6764,10 +6741,10 @@
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>20</v>
@@ -6775,10 +6752,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6801,13 +6778,13 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6858,7 +6835,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6879,13 +6856,13 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>20</v>
@@ -6893,10 +6870,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6919,13 +6896,13 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6976,7 +6953,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7000,10 +6977,10 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>20</v>
@@ -7011,10 +6988,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7037,13 +7014,13 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7094,7 +7071,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7115,13 +7092,13 @@
         <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>20</v>
@@ -7129,10 +7106,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7155,13 +7132,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7212,7 +7189,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7224,7 +7201,7 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7236,7 +7213,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7247,10 +7224,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7365,14 +7342,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7394,13 +7371,13 @@
         <v>135</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7485,14 +7462,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7514,16 +7491,16 @@
         <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7572,7 +7549,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7607,10 +7584,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7636,10 +7613,10 @@
         <v>174</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7666,13 +7643,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7690,7 +7667,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7699,7 +7676,7 @@
         <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>102</v>
@@ -7708,13 +7685,13 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7725,10 +7702,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7751,13 +7728,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7808,7 +7785,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7817,7 +7794,7 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>102</v>
@@ -7832,7 +7809,7 @@
         <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
@@ -7843,10 +7820,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7872,10 +7849,10 @@
         <v>174</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7902,11 +7879,11 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7924,7 +7901,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7948,7 +7925,7 @@
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -7959,10 +7936,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7985,16 +7962,16 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8044,7 +8021,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8056,7 +8033,7 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
@@ -8068,7 +8045,7 @@
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8079,10 +8056,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8197,14 +8174,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8226,13 +8203,13 @@
         <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8317,14 +8294,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8346,16 +8323,16 @@
         <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8404,7 +8381,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8439,10 +8416,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8468,10 +8445,10 @@
         <v>174</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8502,7 +8479,7 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8520,7 +8497,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8529,25 +8506,25 @@
         <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>20</v>
@@ -8555,10 +8532,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8581,13 +8558,13 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8638,7 +8615,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8647,7 +8624,7 @@
         <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
@@ -8662,10 +8639,10 @@
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>20</v>
@@ -8673,10 +8650,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8699,13 +8676,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8756,7 +8733,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8771,16 +8748,16 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-con-1:If clinicalStatus is 'recurrence', the recurrenceOf extension must be provided. {clinicalStatus.exists() and clinicalStatus.coding.code = 'recurrence' implies extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-of').exists()}o-con-2:If clinicalStatus is 'recurrence', the type of recurrence must be provided. {clinicalStatus.exists() and clinicalStatus.coding.code = 'recurrence' implies clinicalStatus.extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-type').exists()}o-con-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-con-req-2:The assertedDate extension is required and must be provided. {extension('http://hl7.org/fhir/StructureDefinition/condition-assertedDate').exists()}o-con-req-3:The bodySite element is required and must be provided. {bodySite.exists() and bodySite.coding.exists()}o-con-req-4:The histologyMorphologyBehavior extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-histology-morphology-behavior').exists()}</t>
+con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-con-1:If clinicalStatus is 'recurrence', the recurrenceOf extension must be provided. {clinicalStatus.exists() and clinicalStatus.coding.code = 'recurrence' implies extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-of').exists()}o-con-2:If clinicalStatus is 'recurrence', the type of recurrence must be provided. {clinicalStatus.exists() and clinicalStatus.coding.code = 'recurrence' implies clinicalStatus.extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-recurrence-type').exists()}o-con-req-1:The subject element is required and must be provided. {subject.exists()}o-con-req-2:The assertedDate extension is required and must be provided. {extension('http://hl7.org/fhir/StructureDefinition/condition-assertedDate').exists()}o-con-req-3:The bodySite element is required and must be provided. {bodySite.exists() and bodySite.coding.exists()}o-con-req-4:The histologyMorphologyBehavior extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-histology-morphology-behavior').exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-primary-cancer-condition.xlsx
+++ b/StructureDefinition-onconova-primary-cancer-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
